--- a/biology/Botanique/Laure_Davoust/Laure_Davoust.xlsx
+++ b/biology/Botanique/Laure_Davoust/Laure_Davoust.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Laure Davoust' est un rosier grimpant hybride de multiflora et peut-être de Rosa sempervirens[1], introduit en 1834 par Jean Laffay.
+'Laure Davoust' est un rosier grimpant hybride de multiflora et peut-être de Rosa sempervirens, introduit en 1834 par Jean Laffay.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce rosier ancien compte depuis presque deux siècles des adeptes inconditionnels car il présente de multiples bouquets très florifères de petites fleurs doubles (17-25 pétales) au cœur vert[2] de couleur rose pâle serrées les unes contre les autres[3], et plus pâles au fur et à mesure. Elles exhalent un délicat parfum de thé.
-Ce rosier liane très vigoureux et non remontant s'élève à 5 mètres, parfois plus[4]. Il peut être aussi élevé en buisson épais.
-Il a besoin d'une situation ensoleillée pour bien fleurir longuement en mai-juin[5]. Il résiste à des températures de l'ordre de -20°[6]. Il est idéal pour garnir un vieil arbre[7] ou pour décorer une pergola ou un pilier[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce rosier ancien compte depuis presque deux siècles des adeptes inconditionnels car il présente de multiples bouquets très florifères de petites fleurs doubles (17-25 pétales) au cœur vert de couleur rose pâle serrées les unes contre les autres, et plus pâles au fur et à mesure. Elles exhalent un délicat parfum de thé.
+Ce rosier liane très vigoureux et non remontant s'élève à 5 mètres, parfois plus. Il peut être aussi élevé en buisson épais.
+Il a besoin d'une situation ensoleillée pour bien fleurir longuement en mai-juin. Il résiste à des températures de l'ordre de -20°. Il est idéal pour garnir un vieil arbre ou pour décorer une pergola ou un pilier.
 </t>
         </is>
       </c>
